--- a/RA/RA Developer Documentation Archive/RA_新增事实_券销售金额_2016-08-15.xlsx
+++ b/RA/RA Developer Documentation Archive/RA_新增事实_券销售金额_2016-08-15.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t>去年同期月累计未税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年同期年累计未税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月累计未税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当年累计未税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年同期含税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年同期月累计含税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年同期年累计含税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月累计含税券销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当年累计含税券销售金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,7 +541,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -562,7 +598,9 @@
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5"/>
@@ -575,7 +613,9 @@
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5"/>
@@ -585,8 +625,12 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
@@ -596,8 +640,12 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5"/>
@@ -607,8 +655,12 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
@@ -618,8 +670,12 @@
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
@@ -629,8 +685,12 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5"/>
@@ -640,8 +700,12 @@
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5"/>
@@ -651,8 +715,12 @@
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5"/>
@@ -662,8 +730,12 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5"/>
@@ -673,8 +745,12 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
